--- a/CCODE_PYTHON-REVISED.xlsx
+++ b/CCODE_PYTHON-REVISED.xlsx
@@ -21,118 +21,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
-    <t>Canada; 480100 Almaty, Karasai Batyr 34; tel. (3272) 50-11-51; Ambassador; CHARLES RICHARD MANN.</t>
-    <phoneticPr fontId="23"/>
-  </si>
-  <si>
-    <t>China, People's Republic; Almaty, Furmanova 137 ; tel. (3272) 63-49-66; fax (3272) 63-92-91; Ambassador; CHEN Dl.</t>
-    <phoneticPr fontId="23"/>
-  </si>
-  <si>
-    <t>Croatia; Almaty, Furmanova 110; tel. (3272) 62-57-03; telex 251435; fax (3272) 50-62-92; Chargé d'affaires a.i.; KARINO HROMIN.</t>
-    <phoneticPr fontId="23"/>
-  </si>
-  <si>
-    <t>Czech Republic; Almaty, pr. Zhibek zholy 64; tel. (3272) 33-47-13; fax (3272) 33-50-88; Chargé d'affaires a.i.; ALEXANDER LANGER.</t>
-    <phoneticPr fontId="23"/>
-  </si>
-  <si>
-    <t>Egypt; 480100 Almaty, Zenkova 59; tel. (3272) 60-16-22; fax (3272) 61-10-22; Ambassador; AYMAN HAMDI EL KOUNI.</t>
-    <phoneticPr fontId="23"/>
-  </si>
-  <si>
-    <t>France; 480110 Almaty, Furmanova 173; tel. (3272) 50-62-36; fax (3272) 50-61-59; Ambassador; ALAIN RICHARD.</t>
-    <phoneticPr fontId="23"/>
-  </si>
-  <si>
-    <t>Georgia; Almaty, Poletayeva 53; tel. (3272) 31-09-09; Ambassador; TEMUR GOGOLADZE.</t>
-    <phoneticPr fontId="23"/>
-  </si>
-  <si>
-    <t>Hungary; Almaty, Tulebayeva 162, kV. 29; tel. (3272) 63-64-37; fax (3272) 50-70-99; Ambassador; JOZSEF TORMA.</t>
-    <phoneticPr fontId="23"/>
-  </si>
-  <si>
-    <t>India; Almaty, Internatsionalnaya 71; tel. (3272) 67-14-11; fax (3272) 67-67-67; Ambassador; RAJIV SIKRI.</t>
-    <phoneticPr fontId="23"/>
-  </si>
-  <si>
-    <t>Iran; Almaty, Kabanbai Batyr 119; tel. (3272) 67-78-46; fax (3272) 54-27-54; Ambassador; RASUL ESLAMI.</t>
-    <phoneticPr fontId="23"/>
-  </si>
-  <si>
-    <t>Libya; Almaty, 6-Kirpichnozavodskaya 58, Zheltoksan (ug. Al. Farabi); tel. (3272) 64-36-61; fax (3272) 65-62-62; Chargé d'affaires a.i.; OMAR ALI GEIT.</t>
-    <phoneticPr fontId="23"/>
-  </si>
-  <si>
-    <t>Lithuania; Almaty, Iskanderova 15; tel. (3272) 53-41-03; fax (3272) 65-14-60; Ambassador; JUOZAS ASEMBERGAS.</t>
-    <phoneticPr fontId="23"/>
-  </si>
-  <si>
-    <t>Mongolia; Almaty, pr. Al-Farabi (ug. Saina); tel. (3272) 20-08-65; fax (3272) 60-17-23; Ambassador; SHARAVIYN GUNGAADORJ.</t>
-    <phoneticPr fontId="23"/>
-  </si>
-  <si>
-    <t>Netherlands; 480013 Almaty, pr. Abaya IOA; tel. (3272) 63-86-54; fax (3272) 63-19-57; Ambassador; A. VAN DER TOGT.</t>
-    <phoneticPr fontId="23"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Pakistan; 480004 Almaty, Tulebayeva 25; tel. (3272) 33-35-48;fax(3272) 33-13-00; Ambassador; SULTAN KHAYAT KHAN. </t>
-    <phoneticPr fontId="23"/>
-  </si>
-  <si>
-    <t>Romania; Almaty, Naurazboi Bataka, kV. 25; tel. (3272) 63-86-79; fax (3272) 63-12-07; Ambassador; MIHAIL ENESCU.</t>
-    <phoneticPr fontId="23"/>
-  </si>
-  <si>
-    <t>Tajikistan; Almaty, Jandosova 58; tel. and fax (3272) 44-20-89; Ambassador; SAID SHARIPOV.</t>
-    <phoneticPr fontId="23"/>
-  </si>
-  <si>
-    <t>Australia; 480004 Almaty, Kazybek bi 20A; tel. (3272) 63-94-18; Ambassador; DOUGLAS TOWNSEND.</t>
-    <phoneticPr fontId="23"/>
-  </si>
-  <si>
-    <t>Armenia; 480075 Almaty, pr. Seifullina 579, 7th Floor; tel. and fax (3272) 69-29-08; Chargé d’affaires a.i.; ARMAN MELIKIAN.</t>
-    <phoneticPr fontId="23"/>
-  </si>
-  <si>
-    <t>Bulgaria; Almaty, Makataeva 13A; tel. (3272) 30-27-55; Chargé d'affaires a.i.;YORDAN TRENCHEV.</t>
-    <phoneticPr fontId="23"/>
-  </si>
-  <si>
-    <t>Cuba; Almaty, Zenkova 70, kv. 23; tel. and fax (3272) 61-59-25; Chargé d'affaires a.i.; ROBERTO CRUZ GALINDO.</t>
-    <phoneticPr fontId="23"/>
-  </si>
-  <si>
-    <t>Germany; 480064 Almaty, Furmanova 173; tel. (3272) 50-61-55; telex 251409; fax (3272) 50-62-76; Ambassador; HENNING VON TINGHAUSEN.</t>
-    <phoneticPr fontId="23"/>
-  </si>
-  <si>
-    <t>Holy See; 480091 Almaty, Kabanbav Batyr 77, kV. 20; tel. (3272) 63-62-40; Apostolic Nuncio; Most Rev. MARIAN OLES, Titular Archbishop of Ratiaria.</t>
-    <phoneticPr fontId="23"/>
-  </si>
-  <si>
-    <t>Israel; Almaty, Zheltoksan 87; tel. (3272) 50-72-15; fax (3272) 50-62-83; Ambassador; ISRAEL MEY-AMI.</t>
-    <phoneticPr fontId="23"/>
-  </si>
-  <si>
-    <t>Italy; Almaty, Kazybek bi 20, 3rd Floor; tel. (3272) 63-98-14.;fax (3292)63-96-36; Ambassador; GIORGIO MALFATI DI MONTETRETTO.</t>
-    <phoneticPr fontId="23"/>
-  </si>
-  <si>
     <t>Japan; Almaty, Samal 1, d. 36;tel. (3272)53-32-04;fax(3272)53-31-94;Ambassador;AKIRA MATSUI.</t>
     <phoneticPr fontId="23"/>
   </si>
   <si>
-    <t>Korea, Democratic People's Republic; Almaty, Kok-Tyube, Gorodskaya 12; tel. (3272) 61-89-98; fax (3272) 25-27-66; Ambassador;  NAM LI GIL.</t>
-    <phoneticPr fontId="23"/>
-  </si>
-  <si>
-    <t>Korea, Republic; Almaty, Jarkentskaya 2/77; tel. (3272) 53-26-60;fax (3272) 50-70-59; Ambassador;KIM CHANG-KEON.</t>
-    <phoneticPr fontId="23"/>
-  </si>
-  <si>
     <t>Kyrgyzstan; Almaty, Amangeldy 68A; tel. (3272) 63-33-09; fax (3272) 63-33-62;Ambassador;AKBAR RYSKULOV.</t>
     <phoneticPr fontId="23"/>
   </si>
@@ -141,12 +33,120 @@
     <phoneticPr fontId="23"/>
   </si>
   <si>
-    <t>Poland; Almaty, Ualikhanova 9; tel. and fax (3272) 33-74-S6; Ambassador; MAREK GAWESKI.</t>
+    <t>Kazakhstan</t>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>Armenia; 480075 Almaty, pr. Seifullina 579, 7th Floor; tel. and fax (3272) 69-29-08;Chargé d’affaires a.i.; ARMAN MELIKIAN.</t>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>Australia; 480004 Almaty, Kazybek bi 20A; tel. (3272) 63-94-18;Ambassador; DOUGLAS TOWNSEND.</t>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>Bulgaria; Almaty, Makataeva 13A; tel. (3272) 30-27-55;Chargé d'affaires a.i.;YORDAN TRENCHEV.</t>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>Canada; 480100 Almaty, Karasai Batyr 34; tel. (3272) 50-11-51;Ambassador; CHARLES RICHARD MANN.</t>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>China, People's Republic; Almaty, Furmanova 137 ; tel. (3272) 63-49-66; fax (3272) 63-92-91;Ambassador; CHEN Dl.</t>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>Croatia; Almaty, Furmanova 110; tel. (3272) 62-57-03; telex 251435; fax (3272) 50-62-92;Chargé d'affaires a.i.; KARINO HROMIN.</t>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>Cuba; Almaty, Zenkova 70, kv. 23; tel. and fax (3272) 61-59-25;Chargé d'affaires a.i.; ROBERTO CRUZ GALINDO.</t>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>Czech Republic; Almaty, pr. Zhibek zholy 64; tel. (3272) 33-47-13; fax (3272) 33-50-88;Chargé d'affaires a.i.; ALEXANDER LANGER.</t>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>Egypt; 480100 Almaty, Zenkova 59; tel. (3272) 60-16-22; fax (3272) 61-10-22;Ambassador; AYMAN HAMDI EL KOUNI.</t>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>France; 480110 Almaty, Furmanova 173; tel. (3272) 50-62-36; fax (3272) 50-61-59;Ambassador; ALAIN RICHARD.</t>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>Georgia; Almaty, Poletayeva 53; tel. (3272) 31-09-09;Ambassador; TEMUR GOGOLADZE.</t>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>Germany; 480064 Almaty, Furmanova 173; tel. (3272) 50-61-55; telex 251409; fax (3272) 50-62-76;Ambassador; HENNING VON TINGHAUSEN.</t>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>Holy See; 480091 Almaty, Kabanbav Batyr 77, kV. 20; tel. (3272) 63-62-40;Apostolic Nuncio; Most Rev. MARIAN OLES, Titular Archbishop of Ratiaria.</t>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>Hungary; Almaty, Tulebayeva 162, kV. 29; tel. (3272) 63-64-37; fax (3272) 50-70-99;Ambassador; JOZSEF TORMA.</t>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>India; Almaty, Internatsionalnaya 71; tel. (3272) 67-14-11; fax (3272) 67-67-67;Ambassador; RAJIV SIKRI.</t>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>Iran; Almaty, Kabanbai Batyr 119; tel. (3272) 67-78-46; fax (3272) 54-27-54;Ambassador; RASUL ESLAMI.</t>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>Israel; Almaty, Zheltoksan 87; tel. (3272) 50-72-15; fax (3272) 50-62-83;Ambassador; ISRAEL MEY-AMI.</t>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>Italy; Almaty, Kazybek bi 20, 3rd Floor; tel. (3272) 63-98-14.;fax (3292)63-96-36;Ambassador; GIORGIO MALFATI DI MONTETRETTO.</t>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>Korea, Democratic People's Republic; Almaty, Kok-Tyube, Gorodskaya 12; tel. (3272) 61-89-98; fax (3272) 25-27-66;Ambassador;  NAM LI GIL.</t>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>Korea, Republic; Almaty, Jarkentskaya 2/77; tel. (3272) 53-26-60;fax (3272) 50-70-59;Ambassador;KIM CHANG-KEON.</t>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>Libya; Almaty, 6-Kirpichnozavodskaya 58, Zheltoksan (ug. Al. Farabi); tel. (3272) 64-36-61; fax (3272) 65-62-62;Chargé d'affaires a.i.; OMAR ALI GEIT.</t>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>Lithuania; Almaty, Iskanderova 15; tel. (3272) 53-41-03; fax (3272) 65-14-60;Ambassador; JUOZAS ASEMBERGAS.</t>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>Mongolia; Almaty, pr. Al-Farabi (ug. Saina); tel. (3272) 20-08-65; fax (3272) 60-17-23;Ambassador; SHARAVIYN GUNGAADORJ.</t>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>Netherlands; 480013 Almaty, pr. Abaya IOA; tel. (3272) 63-86-54; fax (3272) 63-19-57;Ambassador; A. VAN DER TOGT.</t>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan; 480004 Almaty, Tulebayeva 25; tel. (3272) 33-35-48;fax(3272) 33-13-00;Ambassador; SULTAN KHAYAT KHAN. </t>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>Poland; Almaty, Ualikhanova 9; tel. and fax (3272) 33-74-S6;Ambassador; MAREK GAWESKI.</t>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>Romania; Almaty, Naurazboi Bataka, kV. 25; tel. (3272) 63-86-79; fax (3272) 63-12-07;Ambassador; MIHAIL ENESCU.</t>
     <phoneticPr fontId="23"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Russia; Almaty, Jandosova 4; tel. (3272) 44-64-91; fax (3272) 44- 83-23; Ambassador; VYACHESLAV </t>
+      <t xml:space="preserve">Russia; Almaty, Jandosova 4; tel. (3272) 44-64-91; fax (3272) 44- 83-23;Ambassador; VYACHESLAV </t>
     </r>
     <r>
       <rPr>
@@ -170,31 +170,31 @@
     <phoneticPr fontId="23"/>
   </si>
   <si>
-    <t>Turkey; 480100 Almaty, Tole bi 29; tel. (3272) 61-81-53; telex 251226; fax (3272) 50-62-08; Ambassador; KURTULUS TASKENT.</t>
-    <phoneticPr fontId="23"/>
-  </si>
-  <si>
-    <t>United Kingdom; 480110 Almaty, Furmanova 173; tel. (3272) 50-61-91; telex 613398; fax (3272) 50-62-60; Ambassador;D.B MCADAM.</t>
-    <phoneticPr fontId="23"/>
-  </si>
-  <si>
-    <t>USA; 480012 Almaty, Furmanova 97-99; tel. (3272) 50-96-21; fa} (3272) 63-38-83; Ambassador; A. ELIZABETH JONES.</t>
-    <phoneticPr fontId="23"/>
-  </si>
-  <si>
-    <t>Uzbekistan; 480100 Almaty, Baribayeva 36; tel. (3272) 61-02-35 fax (3272) 61-10-55; Ambassador; NASYRJAN. YAKUBOV.</t>
-    <phoneticPr fontId="23"/>
-  </si>
-  <si>
-    <t>Afghanistan; Almaty, Shalyapina 56, Hotel Molodezhnaya; tel. (3272) 28-68-71; Chargé d'affaires a.i.; NAJIBULLAH ZIA RAKHMAN.</t>
-    <phoneticPr fontId="23"/>
-  </si>
-  <si>
-    <t>Ukraine; Almaty, Chaikovskogo 208; tel. (3272) 62-70-73; fax (3272) 62-89-25; Ambassador; VIKTOR V. BOGATYR.</t>
-    <phoneticPr fontId="23"/>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
+    <t>Tajikistan; Almaty, Jandosova 58; tel. and fax (3272) 44-20-89;Ambassador; SAID SHARIPOV.</t>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>Turkey; 480100 Almaty, Tole bi 29; tel. (3272) 61-81-53; telex 251226; fax (3272) 50-62-08;Ambassador; KURTULUS TASKENT.</t>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>Ukraine; Almaty, Chaikovskogo 208; tel. (3272) 62-70-73; fax (3272) 62-89-25;Ambassador; VIKTOR V. BOGATYR.</t>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>United Kingdom; 480110 Almaty, Furmanova 173; tel. (3272) 50-61-91; telex 613398; fax (3272) 50-62-60;Ambassador;D.B MCADAM.</t>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>USA; 480012 Almaty, Furmanova 97-99; tel. (3272) 50-96-21; fa} (3272) 63-38-83;Ambassador; A. ELIZABETH JONES.</t>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>Uzbekistan; 480100 Almaty, Baribayeva 36; tel. (3272) 61-02-35 fax (3272) 61-10-55;Ambassador; NASYRJAN. YAKUBOV.</t>
+    <phoneticPr fontId="23"/>
+  </si>
+  <si>
+    <t>Afghanistan; Almaty, Shalyapina 56, Hotel Molodezhnaya; tel. (3272) 28-68-71;Chargé d'affaires a.i.; NAJIBULLAH ZIA RAKHMAN.</t>
     <phoneticPr fontId="23"/>
   </si>
 </sst>
@@ -835,23 +835,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
@@ -1374,559 +1374,582 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="A3" sqref="A3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="5" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="5" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="1:10" ht="83.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="1:10" ht="83.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="3" t="s">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="3" t="s">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-    </row>
-    <row r="27" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-    </row>
-    <row r="28" spans="1:10" ht="83.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="29" spans="1:10" ht="83.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-    </row>
-    <row r="31" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="7" t="s">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
+      <c r="A34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
     </row>
     <row r="35" spans="1:10" ht="84.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
+      <c r="A35" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
     </row>
     <row r="36" spans="1:10" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-    </row>
-    <row r="37" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-    </row>
-    <row r="38" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-    </row>
-    <row r="39" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A24:J24"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A37:J37"/>
     <mergeCell ref="A38:J38"/>
@@ -1943,29 +1966,6 @@
     <mergeCell ref="A19:J19"/>
     <mergeCell ref="A20:J20"/>
     <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A26:J26"/>
   </mergeCells>
   <phoneticPr fontId="23"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
